--- a/DataBase Table.xlsx
+++ b/DataBase Table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sushma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intern_Project\Team4_Interns2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5587BBC8-06B9-41B2-8A07-B696538DD8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="151">
   <si>
     <t>Customer</t>
   </si>
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -41,12 +39,6 @@
     <t>Business</t>
   </si>
   <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>business_type</t>
-  </si>
-  <si>
     <t>Products</t>
   </si>
   <si>
@@ -62,12 +54,6 @@
     <t>product_description</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
     <t>myorder</t>
   </si>
   <si>
@@ -110,9 +96,6 @@
     <t>user_role</t>
   </si>
   <si>
-    <t>product_category</t>
-  </si>
-  <si>
     <t>Datatype</t>
   </si>
   <si>
@@ -167,15 +150,6 @@
     <t>primary key ,unique,not null</t>
   </si>
   <si>
-    <t>admin_username</t>
-  </si>
-  <si>
-    <t>admin_email_id</t>
-  </si>
-  <si>
-    <t>admin_password</t>
-  </si>
-  <si>
     <t>not null,unique</t>
   </si>
   <si>
@@ -191,15 +165,6 @@
     <t>boolean</t>
   </si>
   <si>
-    <t>support_username</t>
-  </si>
-  <si>
-    <t>support_email_id</t>
-  </si>
-  <si>
-    <t>support_password</t>
-  </si>
-  <si>
     <t>discount</t>
   </si>
   <si>
@@ -221,15 +186,9 @@
     <t>User Table :</t>
   </si>
   <si>
-    <t>Support Table :</t>
-  </si>
-  <si>
     <t>Business Table :</t>
   </si>
   <si>
-    <t>Admin Table :</t>
-  </si>
-  <si>
     <t>Order Table :</t>
   </si>
   <si>
@@ -261,13 +220,271 @@
   </si>
   <si>
     <t>primary key,not null,unique</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>email_id</t>
+  </si>
+  <si>
+    <t>First_name</t>
+  </si>
+  <si>
+    <t>Last_name</t>
+  </si>
+  <si>
+    <t>Location Table :</t>
+  </si>
+  <si>
+    <t>Location_name</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Address Line 3</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>fixed_length(6)</t>
+  </si>
+  <si>
+    <t>Location_id</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>Category Table :</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>category_name</t>
+  </si>
+  <si>
+    <t>sub_category_id</t>
+  </si>
+  <si>
+    <t>Sub_category</t>
+  </si>
+  <si>
+    <t>primary key,unique, not null</t>
+  </si>
+  <si>
+    <t>sub_category_name</t>
+  </si>
+  <si>
+    <t>FAQ</t>
+  </si>
+  <si>
+    <t>FAQ_id</t>
+  </si>
+  <si>
+    <t>FAQ_title</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>FAQ_solution</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>blog_id</t>
+  </si>
+  <si>
+    <t>blog_title</t>
+  </si>
+  <si>
+    <t>blog_content</t>
+  </si>
+  <si>
+    <t>varchar(1000)</t>
+  </si>
+  <si>
+    <t>blog_author</t>
+  </si>
+  <si>
+    <t>Sub Category table:</t>
+  </si>
+  <si>
+    <t>Blog Table:</t>
+  </si>
+  <si>
+    <t>FAQ table:</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Primary key, unique, not null</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>not null,Foreign Key</t>
+  </si>
+  <si>
+    <t>not null, Foreign Key</t>
+  </si>
+  <si>
+    <t>VARCHAR (2000)</t>
+  </si>
+  <si>
+    <t>error_Id</t>
+  </si>
+  <si>
+    <t>error_Type_Id</t>
+  </si>
+  <si>
+    <t>error_Time_Stamp</t>
+  </si>
+  <si>
+    <t>url_Or_Module</t>
+  </si>
+  <si>
+    <t>user_Id</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>config_Name</t>
+  </si>
+  <si>
+    <t>Primary key, not null</t>
+  </si>
+  <si>
+    <t>foreign key,not null</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Varchar(2000)</t>
+  </si>
+  <si>
+    <t>Varchar(20)</t>
+  </si>
+  <si>
+    <t>config_Id</t>
+  </si>
+  <si>
+    <t>config_Value</t>
+  </si>
+  <si>
+    <t>created_Date_Time</t>
+  </si>
+  <si>
+    <t>updated_Date_Time</t>
+  </si>
+  <si>
+    <t>created_By_Id FK</t>
+  </si>
+  <si>
+    <t>updated_By_Id FK</t>
+  </si>
+  <si>
+    <t>App Config Table:</t>
+  </si>
+  <si>
+    <t>Error Log Table:</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>Activity Type</t>
+  </si>
+  <si>
+    <t>Activity_type_id</t>
+  </si>
+  <si>
+    <t>Primary Key, not null</t>
+  </si>
+  <si>
+    <t>Activity_type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>varchar(2000)</t>
+  </si>
+  <si>
+    <t>Activity type table:</t>
+  </si>
+  <si>
+    <t>Activity Table:</t>
+  </si>
+  <si>
+    <t>Activity_Id</t>
+  </si>
+  <si>
+    <t>activity_Time_Stamp</t>
+  </si>
+  <si>
+    <t>activity_Type_Id</t>
+  </si>
+  <si>
+    <t>Error type table:</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>error_type_id</t>
+  </si>
+  <si>
+    <t>error_type</t>
+  </si>
+  <si>
+    <t>Created_at</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Created_by</t>
+  </si>
+  <si>
+    <t>Updated_at</t>
+  </si>
+  <si>
+    <t>Updated_by</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>refered_by</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,6 +509,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3C3C3C"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -335,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -429,37 +653,11 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,11 +687,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -509,18 +716,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,108 +1044,204 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:C13" totalsRowShown="0" headerRowDxfId="22" tableBorderDxfId="21">
-  <autoFilter ref="A8:C13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A18:C26" totalsRowShown="0" headerRowDxfId="22" tableBorderDxfId="21">
+  <autoFilter ref="A18:C26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Customer"/>
-    <tableColumn id="2" name="Datatype" dataDxfId="20"/>
-    <tableColumn id="3" name="Constraints" dataDxfId="19"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Customer"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Datatype" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Constraints" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B7FFDE7D-2043-4AB6-94CA-D92D681D0703}" name="Table6" displayName="Table6" ref="A54:C57" totalsRowShown="0">
+  <autoFilter ref="A54:C57" xr:uid="{B7FFDE7D-2043-4AB6-94CA-D92D681D0703}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{0651F918-2A5E-4648-B850-DAD29EBE55EA}" name="Sub_category"/>
+    <tableColumn id="2" xr3:uid="{73BBFCCF-A7EC-4D94-9A14-CCE7CFC0A880}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{D516A1D0-E5D2-4259-8C09-A69CBDFFB1C8}" name="Constraints"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{302DC48E-8677-4A53-9FCD-ABD313F4756D}" name="Table8" displayName="Table8" ref="F47:H50" totalsRowShown="0">
+  <autoFilter ref="F47:H50" xr:uid="{302DC48E-8677-4A53-9FCD-ABD313F4756D}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8A0313BA-75F1-48BE-8D36-8227C016B197}" name="FAQ"/>
+    <tableColumn id="2" xr3:uid="{07EEDA1A-29D6-4C54-9D37-AC90A6BC455D}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{CA464E85-DBF6-4638-8FFD-D6861C4F735E}" name="Constraints"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{05DC688F-9B7C-4292-AC7F-6D43B8A1EB6C}" name="Table13" displayName="Table13" ref="A61:C65" totalsRowShown="0">
+  <autoFilter ref="A61:C65" xr:uid="{05DC688F-9B7C-4292-AC7F-6D43B8A1EB6C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EBF1E4CB-D3C4-43DA-9E39-D465FC157960}" name="Blog"/>
+    <tableColumn id="2" xr3:uid="{9B082BDE-C20B-44BA-8F7A-526AE4B26D4C}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{29939340-806F-4E7E-B91C-EFAEC9242C84}" name="Constraints"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E724A230-1352-4DFC-A59A-134C49975DA9}" name="Table14" displayName="Table14" ref="F54:H60" totalsRowShown="0">
+  <autoFilter ref="F54:H60" xr:uid="{E724A230-1352-4DFC-A59A-134C49975DA9}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B9154F70-80C0-4ADF-99B0-AB0318C213EA}" name="Log"/>
+    <tableColumn id="2" xr3:uid="{F8E726B4-999F-4328-84BF-FD31EAE3B15F}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{F97A5F79-86B8-4E94-8536-06C91BAAC85C}" name="Constraints"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{580BA339-830F-4884-8E40-8D4924CDC44F}" name="Table15" displayName="Table15" ref="A69:C77" totalsRowShown="0">
+  <autoFilter ref="A69:C77" xr:uid="{580BA339-830F-4884-8E40-8D4924CDC44F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{34400445-C108-4610-8356-F427E0E64816}" name="Config"/>
+    <tableColumn id="2" xr3:uid="{18644B4F-15CE-4049-8E4E-AB5457BD5478}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{52203523-2375-4666-936B-1C394195C4A7}" name="Constraints"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A878DC80-9CE7-4609-AA48-93F267393979}" name="Table16" displayName="Table16" ref="F64:H67" totalsRowShown="0">
+  <autoFilter ref="F64:H67" xr:uid="{A878DC80-9CE7-4609-AA48-93F267393979}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{26A8618F-AE68-4074-8E49-9FCBA9D04CBC}" name="Activity Type"/>
+    <tableColumn id="2" xr3:uid="{B58EB530-A625-41D5-8B3B-B0F738DE8EE5}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{5A979573-466B-4EF6-9715-941AB33E2575}" name="Constraints"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{77889C65-6D94-4B20-AA50-7CCECCC5888B}" name="Table1418" displayName="Table1418" ref="A81:C87" totalsRowShown="0">
+  <autoFilter ref="A81:C87" xr:uid="{77889C65-6D94-4B20-AA50-7CCECCC5888B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FE0E8E12-6585-4CA4-8C6B-85FA62B74749}" name="Activity"/>
+    <tableColumn id="2" xr3:uid="{FBB9DD86-3289-453D-B0A3-C24A60F78D2D}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{E6303F77-C14E-4E8D-AE77-0314B4B135A0}" name="Constraints"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F30DE512-9231-435B-869B-496A92934E35}" name="Table1619" displayName="Table1619" ref="F71:H74" totalsRowShown="0">
+  <autoFilter ref="F71:H74" xr:uid="{F30DE512-9231-435B-869B-496A92934E35}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A0DC1440-9B0A-4A58-B2F2-4CA32794C9B0}" name="Error Type"/>
+    <tableColumn id="2" xr3:uid="{333C0D53-BCA0-4D2B-96C7-866EFDF95DD5}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{62981F31-F822-4767-B46F-0CDD21A4E7D8}" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A17:C26" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="A17:C26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A30:C39" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A30:C39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Business" dataDxfId="17"/>
-    <tableColumn id="2" name="Datatype"/>
-    <tableColumn id="3" name="Constraints" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Business" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Constraints" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="F3:H10" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="F3:H10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="F3:H15" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="F3:H15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Products"/>
-    <tableColumn id="2" name="Datatype"/>
-    <tableColumn id="3" name="Constraints"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Products"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A37:C40" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A37:C40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A49:C51" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A49:C51" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Support" dataDxfId="10"/>
-    <tableColumn id="2" name="Datatype" dataDxfId="9"/>
-    <tableColumn id="3" name="Constraints" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Datatype" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Constraints" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="F23:H27" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="F23:H27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="F27:H31" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="F27:H31" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="myorder"/>
-    <tableColumn id="2" name="Datatype"/>
-    <tableColumn id="3" name="Constraints"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="myorder"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A2:C4" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
-  <autoFilter ref="A2:C4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table10" displayName="Table10" ref="A2:C14" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
+  <autoFilter ref="A2:C14" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="User"/>
-    <tableColumn id="2" name="Datatype"/>
-    <tableColumn id="3" name="Constraints"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="User"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table810" displayName="Table810" ref="F13:H18" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="F13:H18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table810" displayName="Table810" ref="F18:H22" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="F18:H22" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Payment"/>
-    <tableColumn id="2" name="Datatype"/>
-    <tableColumn id="3" name="Constraints"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Payment"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="F31:H33" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="F31:H33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table11" displayName="Table11" ref="F35:H37" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="F35:H37" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Request"/>
-    <tableColumn id="2" name="Datatype"/>
-    <tableColumn id="3" name="Constraints"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Request"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="F37:H40" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="F37:H40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table12" displayName="Table12" ref="F41:H44" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="F41:H44" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Image"/>
-    <tableColumn id="2" name="Datatype"/>
-    <tableColumn id="3" name="Constraints"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Image"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Datatype"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1203,611 +1509,1234 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="27.7265625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="F7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="F8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="F11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="F13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="F14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="26"/>
+      <c r="F26" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F28" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F40" s="17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="7" t="s">
+    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H43" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="H44" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="22" t="s">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F46" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F48" t="s">
+        <v>87</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>88</v>
+      </c>
+      <c r="G49" t="s">
+        <v>63</v>
+      </c>
+      <c r="H49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>90</v>
+      </c>
+      <c r="G50" t="s">
+        <v>89</v>
+      </c>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="11" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="8" t="s">
+      <c r="C51" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>100</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>84</v>
+      </c>
+      <c r="F55" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" t="s">
+        <v>29</v>
+      </c>
+      <c r="H55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="8" t="s">
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" t="s">
+        <v>104</v>
+      </c>
+      <c r="G56" t="s">
+        <v>107</v>
+      </c>
+      <c r="H56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="F57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G57" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F58" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G58" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="H58" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F59" t="s">
+        <v>111</v>
+      </c>
+      <c r="G59" t="s">
+        <v>102</v>
+      </c>
+      <c r="H59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F60" t="s">
+        <v>112</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>92</v>
+      </c>
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>94</v>
+      </c>
+      <c r="B64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="F64" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" t="s">
+        <v>130</v>
+      </c>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+      <c r="H65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F66" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="8" t="s">
+      <c r="H66" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G67" t="s">
+        <v>134</v>
+      </c>
+      <c r="H67" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="17" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" t="s">
+        <v>118</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="F71" t="s">
+        <v>141</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>104</v>
+      </c>
+      <c r="B72" t="s">
+        <v>118</v>
+      </c>
+      <c r="C72" t="s">
+        <v>27</v>
+      </c>
+      <c r="F72" t="s">
+        <v>142</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+      <c r="H72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s">
+        <v>27</v>
+      </c>
+      <c r="F73" t="s">
+        <v>143</v>
+      </c>
+      <c r="G73" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
+      <c r="H73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="F74" t="s">
+        <v>133</v>
+      </c>
+      <c r="G74" t="s">
+        <v>134</v>
+      </c>
+      <c r="H74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F27" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F30" s="23" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G32" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H32" s="25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>33</v>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" t="s">
+        <v>107</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>139</v>
+      </c>
+      <c r="B84" t="s">
+        <v>102</v>
+      </c>
+      <c r="C84" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="9">
+  <tableParts count="17">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -1817,6 +2746,14 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>
--- a/DataBase Table.xlsx
+++ b/DataBase Table.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Intern_Project\Team4_Interns2022\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5587BBC8-06B9-41B2-8A07-B696538DD8D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -483,8 +477,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,204 +1038,204 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A18:C26" totalsRowShown="0" headerRowDxfId="22" tableBorderDxfId="21">
-  <autoFilter ref="A18:C26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A18:C26" totalsRowShown="0" headerRowDxfId="22" tableBorderDxfId="21">
+  <autoFilter ref="A18:C26"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Customer"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Datatype" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Constraints" dataDxfId="19"/>
+    <tableColumn id="1" name="Customer"/>
+    <tableColumn id="2" name="Datatype" dataDxfId="20"/>
+    <tableColumn id="3" name="Constraints" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B7FFDE7D-2043-4AB6-94CA-D92D681D0703}" name="Table6" displayName="Table6" ref="A54:C57" totalsRowShown="0">
-  <autoFilter ref="A54:C57" xr:uid="{B7FFDE7D-2043-4AB6-94CA-D92D681D0703}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A54:C57" totalsRowShown="0">
+  <autoFilter ref="A54:C57"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0651F918-2A5E-4648-B850-DAD29EBE55EA}" name="Sub_category"/>
-    <tableColumn id="2" xr3:uid="{73BBFCCF-A7EC-4D94-9A14-CCE7CFC0A880}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{D516A1D0-E5D2-4259-8C09-A69CBDFFB1C8}" name="Constraints"/>
+    <tableColumn id="1" name="Sub_category"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{302DC48E-8677-4A53-9FCD-ABD313F4756D}" name="Table8" displayName="Table8" ref="F47:H50" totalsRowShown="0">
-  <autoFilter ref="F47:H50" xr:uid="{302DC48E-8677-4A53-9FCD-ABD313F4756D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="F47:H50" totalsRowShown="0">
+  <autoFilter ref="F47:H50"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8A0313BA-75F1-48BE-8D36-8227C016B197}" name="FAQ"/>
-    <tableColumn id="2" xr3:uid="{07EEDA1A-29D6-4C54-9D37-AC90A6BC455D}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{CA464E85-DBF6-4638-8FFD-D6861C4F735E}" name="Constraints"/>
+    <tableColumn id="1" name="FAQ"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{05DC688F-9B7C-4292-AC7F-6D43B8A1EB6C}" name="Table13" displayName="Table13" ref="A61:C65" totalsRowShown="0">
-  <autoFilter ref="A61:C65" xr:uid="{05DC688F-9B7C-4292-AC7F-6D43B8A1EB6C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A61:C65" totalsRowShown="0">
+  <autoFilter ref="A61:C65"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EBF1E4CB-D3C4-43DA-9E39-D465FC157960}" name="Blog"/>
-    <tableColumn id="2" xr3:uid="{9B082BDE-C20B-44BA-8F7A-526AE4B26D4C}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{29939340-806F-4E7E-B91C-EFAEC9242C84}" name="Constraints"/>
+    <tableColumn id="1" name="Blog"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{E724A230-1352-4DFC-A59A-134C49975DA9}" name="Table14" displayName="Table14" ref="F54:H60" totalsRowShown="0">
-  <autoFilter ref="F54:H60" xr:uid="{E724A230-1352-4DFC-A59A-134C49975DA9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table14" displayName="Table14" ref="F54:H60" totalsRowShown="0">
+  <autoFilter ref="F54:H60"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B9154F70-80C0-4ADF-99B0-AB0318C213EA}" name="Log"/>
-    <tableColumn id="2" xr3:uid="{F8E726B4-999F-4328-84BF-FD31EAE3B15F}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{F97A5F79-86B8-4E94-8536-06C91BAAC85C}" name="Constraints"/>
+    <tableColumn id="1" name="Log"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{580BA339-830F-4884-8E40-8D4924CDC44F}" name="Table15" displayName="Table15" ref="A69:C77" totalsRowShown="0">
-  <autoFilter ref="A69:C77" xr:uid="{580BA339-830F-4884-8E40-8D4924CDC44F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A69:C77" totalsRowShown="0">
+  <autoFilter ref="A69:C77"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{34400445-C108-4610-8356-F427E0E64816}" name="Config"/>
-    <tableColumn id="2" xr3:uid="{18644B4F-15CE-4049-8E4E-AB5457BD5478}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{52203523-2375-4666-936B-1C394195C4A7}" name="Constraints"/>
+    <tableColumn id="1" name="Config"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{A878DC80-9CE7-4609-AA48-93F267393979}" name="Table16" displayName="Table16" ref="F64:H67" totalsRowShown="0">
-  <autoFilter ref="F64:H67" xr:uid="{A878DC80-9CE7-4609-AA48-93F267393979}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table16" displayName="Table16" ref="F64:H67" totalsRowShown="0">
+  <autoFilter ref="F64:H67"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{26A8618F-AE68-4074-8E49-9FCBA9D04CBC}" name="Activity Type"/>
-    <tableColumn id="2" xr3:uid="{B58EB530-A625-41D5-8B3B-B0F738DE8EE5}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{5A979573-466B-4EF6-9715-941AB33E2575}" name="Constraints"/>
+    <tableColumn id="1" name="Activity Type"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{77889C65-6D94-4B20-AA50-7CCECCC5888B}" name="Table1418" displayName="Table1418" ref="A81:C87" totalsRowShown="0">
-  <autoFilter ref="A81:C87" xr:uid="{77889C65-6D94-4B20-AA50-7CCECCC5888B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table1418" displayName="Table1418" ref="A81:C87" totalsRowShown="0">
+  <autoFilter ref="A81:C87"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FE0E8E12-6585-4CA4-8C6B-85FA62B74749}" name="Activity"/>
-    <tableColumn id="2" xr3:uid="{FBB9DD86-3289-453D-B0A3-C24A60F78D2D}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{E6303F77-C14E-4E8D-AE77-0314B4B135A0}" name="Constraints"/>
+    <tableColumn id="1" name="Activity"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F30DE512-9231-435B-869B-496A92934E35}" name="Table1619" displayName="Table1619" ref="F71:H74" totalsRowShown="0">
-  <autoFilter ref="F71:H74" xr:uid="{F30DE512-9231-435B-869B-496A92934E35}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table1619" displayName="Table1619" ref="F71:H74" totalsRowShown="0">
+  <autoFilter ref="F71:H74"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A0DC1440-9B0A-4A58-B2F2-4CA32794C9B0}" name="Error Type"/>
-    <tableColumn id="2" xr3:uid="{333C0D53-BCA0-4D2B-96C7-866EFDF95DD5}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{62981F31-F822-4767-B46F-0CDD21A4E7D8}" name="Constraints"/>
+    <tableColumn id="1" name="Error Type"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A30:C39" totalsRowShown="0" headerRowDxfId="18">
-  <autoFilter ref="A30:C39" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A30:C39" totalsRowShown="0" headerRowDxfId="18">
+  <autoFilter ref="A30:C39"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Business" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Constraints" dataDxfId="16"/>
+    <tableColumn id="1" name="Business" dataDxfId="17"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="F3:H15" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="F3:H15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="F3:H15" totalsRowShown="0" headerRowDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="F3:H15"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Products"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Constraints"/>
+    <tableColumn id="1" name="Products"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table5" displayName="Table5" ref="A49:C51" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
-  <autoFilter ref="A49:C51" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A49:C51" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" tableBorderDxfId="11">
+  <autoFilter ref="A49:C51"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Category" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Datatype" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Constraints" dataDxfId="8"/>
+    <tableColumn id="1" name="Category" dataDxfId="10"/>
+    <tableColumn id="2" name="Datatype" dataDxfId="9"/>
+    <tableColumn id="3" name="Constraints" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="F27:H31" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="F27:H31" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="F27:H31" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="F27:H31"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="myorder"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Constraints"/>
+    <tableColumn id="1" name="myorder"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table10" displayName="Table10" ref="A2:C14" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
-  <autoFilter ref="A2:C14" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A2:C14" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4">
+  <autoFilter ref="A2:C14"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="User"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Constraints"/>
+    <tableColumn id="1" name="User"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table810" displayName="Table810" ref="F18:H22" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
-  <autoFilter ref="F18:H22" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table810" displayName="Table810" ref="F18:H22" totalsRowShown="0" headerRowDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="F18:H22"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Payment"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Constraints"/>
+    <tableColumn id="1" name="Payment"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table11" displayName="Table11" ref="F35:H37" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="F35:H37" xr:uid="{00000000-0009-0000-0100-00000B000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="F35:H37" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="F35:H37"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Request"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Constraints"/>
+    <tableColumn id="1" name="Request"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table12" displayName="Table12" ref="F41:H44" totalsRowShown="0" tableBorderDxfId="0">
-  <autoFilter ref="F41:H44" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="F41:H44" totalsRowShown="0" tableBorderDxfId="0">
+  <autoFilter ref="F41:H44"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Image"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Datatype"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Constraints"/>
+    <tableColumn id="1" name="Image"/>
+    <tableColumn id="2" name="Datatype"/>
+    <tableColumn id="3" name="Constraints"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1290,7 +1284,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1325,7 +1319,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1502,39 +1496,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.453125" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="27.7265625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
-    <col min="10" max="10" width="21.26953125" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1">
       <c r="A1" s="17" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1548,7 +1542,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -1568,7 +1562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>66</v>
       </c>
@@ -1588,7 +1582,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1608,7 +1602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="15.75" thickBot="1">
       <c r="A6" s="2" t="s">
         <v>146</v>
       </c>
@@ -1628,7 +1622,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="15.75" thickBot="1">
       <c r="A7" s="2" t="s">
         <v>147</v>
       </c>
@@ -1646,7 +1640,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="15.75" thickBot="1">
       <c r="A8" s="2" t="s">
         <v>148</v>
       </c>
@@ -1664,7 +1658,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1">
       <c r="A9" s="2" t="s">
         <v>144</v>
       </c>
@@ -1684,7 +1678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>149</v>
       </c>
@@ -1704,7 +1698,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>150</v>
       </c>
@@ -1722,7 +1716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
       <c r="A12" s="8" t="s">
         <v>22</v>
       </c>
@@ -1742,7 +1736,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -1756,7 +1750,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -1770,7 +1764,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8">
       <c r="F15" s="1" t="s">
         <v>74</v>
       </c>
@@ -1781,7 +1775,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8">
       <c r="A17" s="17" t="s">
         <v>30</v>
       </c>
@@ -1789,7 +1783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" thickBot="1">
       <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
@@ -1809,7 +1803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1">
       <c r="A19" s="8" t="s">
         <v>11</v>
       </c>
@@ -1829,7 +1823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1">
       <c r="A20" s="8" t="s">
         <v>1</v>
       </c>
@@ -1849,7 +1843,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
       <c r="A21" s="8" t="s">
         <v>12</v>
       </c>
@@ -1869,7 +1863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" thickBot="1">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1889,7 +1883,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1900,7 +1894,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>67</v>
       </c>
@@ -1911,7 +1905,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>68</v>
       </c>
@@ -1922,7 +1916,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8">
       <c r="A26" s="1"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
@@ -1930,7 +1924,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="F27" s="9" t="s">
         <v>9</v>
       </c>
@@ -1941,7 +1935,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
       <c r="F28" s="8" t="s">
         <v>10</v>
       </c>
@@ -1952,7 +1946,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1">
       <c r="A29" s="17" t="s">
         <v>53</v>
       </c>
@@ -1966,7 +1960,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="15.75" thickBot="1">
       <c r="A30" s="3" t="s">
         <v>3</v>
       </c>
@@ -1986,7 +1980,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="15.75" thickBot="1">
       <c r="A31" s="11" t="s">
         <v>16</v>
       </c>
@@ -2006,7 +2000,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
       <c r="A32" s="11" t="s">
         <v>15</v>
       </c>
@@ -2017,7 +2011,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1">
       <c r="A33" s="8" t="s">
         <v>1</v>
       </c>
@@ -2028,7 +2022,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1">
       <c r="A34" s="8" t="s">
         <v>2</v>
       </c>
@@ -2042,7 +2036,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1">
       <c r="A35" s="8" t="s">
         <v>77</v>
       </c>
@@ -2062,7 +2056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="8" t="s">
         <v>78</v>
       </c>
@@ -2082,7 +2076,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1">
       <c r="A37" s="8" t="s">
         <v>37</v>
       </c>
@@ -2102,7 +2096,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" ht="15.75" thickBot="1">
       <c r="A38" s="8" t="s">
         <v>44</v>
       </c>
@@ -2113,7 +2107,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" ht="15.75" thickBot="1">
       <c r="A39" s="8" t="s">
         <v>48</v>
       </c>
@@ -2124,12 +2118,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
       <c r="F40" s="17" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" ht="15.75" thickBot="1">
       <c r="F41" s="9" t="s">
         <v>59</v>
       </c>
@@ -2140,7 +2134,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" ht="15.75" thickBot="1">
       <c r="A42" s="17" t="s">
         <v>69</v>
       </c>
@@ -2154,7 +2148,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" ht="15.75" thickBot="1">
       <c r="A43" s="12" t="s">
         <v>69</v>
       </c>
@@ -2174,7 +2168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
       <c r="A44" s="15" t="s">
         <v>76</v>
       </c>
@@ -2194,7 +2188,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" ht="15.75" thickBot="1">
       <c r="A45" s="11" t="s">
         <v>70</v>
       </c>
@@ -2205,12 +2199,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8">
       <c r="F46" s="17" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8">
       <c r="F47" t="s">
         <v>86</v>
       </c>
@@ -2221,7 +2215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8">
       <c r="A48" s="17" t="s">
         <v>79</v>
       </c>
@@ -2235,7 +2229,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" ht="15.75" thickBot="1">
       <c r="A49" s="9" t="s">
         <v>80</v>
       </c>
@@ -2255,7 +2249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1">
       <c r="A50" s="11" t="s">
         <v>78</v>
       </c>
@@ -2275,7 +2269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" ht="15.75" thickBot="1">
       <c r="A51" s="11" t="s">
         <v>81</v>
       </c>
@@ -2286,7 +2280,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8">
       <c r="A53" s="17" t="s">
         <v>97</v>
       </c>
@@ -2294,7 +2288,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>83</v>
       </c>
@@ -2314,7 +2308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>82</v>
       </c>
@@ -2334,7 +2328,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -2354,7 +2348,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>78</v>
       </c>
@@ -2362,7 +2356,7 @@
         <v>29</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="F57" t="s">
         <v>109</v>
@@ -2374,7 +2368,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8">
       <c r="F58" s="28" t="s">
         <v>110</v>
       </c>
@@ -2385,7 +2379,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8">
       <c r="F59" t="s">
         <v>111</v>
       </c>
@@ -2396,7 +2390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8">
       <c r="A60" s="17" t="s">
         <v>98</v>
       </c>
@@ -2410,7 +2404,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -2421,7 +2415,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -2432,7 +2426,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>93</v>
       </c>
@@ -2446,7 +2440,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -2466,7 +2460,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -2486,7 +2480,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8">
       <c r="F66" t="s">
         <v>132</v>
       </c>
@@ -2497,7 +2491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8">
       <c r="F67" t="s">
         <v>133</v>
       </c>
@@ -2508,12 +2502,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8">
       <c r="A68" s="17" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>128</v>
       </c>
@@ -2524,7 +2518,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>120</v>
       </c>
@@ -2538,7 +2532,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -2558,7 +2552,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>104</v>
       </c>
@@ -2578,7 +2572,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>121</v>
       </c>
@@ -2598,7 +2592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>122</v>
       </c>
@@ -2618,7 +2612,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>123</v>
       </c>
@@ -2629,7 +2623,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>124</v>
       </c>
@@ -2640,7 +2634,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>125</v>
       </c>
@@ -2651,12 +2645,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8">
       <c r="A80" s="17" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>113</v>
       </c>
@@ -2667,7 +2661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>137</v>
       </c>
@@ -2678,7 +2672,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -2689,7 +2683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>139</v>
       </c>
@@ -2700,7 +2694,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:3">
       <c r="A85" s="28" t="s">
         <v>138</v>
       </c>
@@ -2711,7 +2705,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>111</v>
       </c>
@@ -2722,7 +2716,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>112</v>
       </c>
